--- a/Data.xlsx
+++ b/Data.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3084" uniqueCount="1315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3107" uniqueCount="1338">
   <si>
     <t>No</t>
   </si>
@@ -3975,13 +3975,82 @@
   </si>
   <si>
     <t>Alpha 0,2</t>
+  </si>
+  <si>
+    <t>2000/2001</t>
+  </si>
+  <si>
+    <t>2001/2002</t>
+  </si>
+  <si>
+    <t>2002/2003</t>
+  </si>
+  <si>
+    <t>2003/2004</t>
+  </si>
+  <si>
+    <t>2004/2005</t>
+  </si>
+  <si>
+    <t>2005/2006</t>
+  </si>
+  <si>
+    <t>2006/2007</t>
+  </si>
+  <si>
+    <t>2007/2008</t>
+  </si>
+  <si>
+    <t>2008/2009</t>
+  </si>
+  <si>
+    <t>2009/2010</t>
+  </si>
+  <si>
+    <t>2010/2011</t>
+  </si>
+  <si>
+    <t>2011/2012</t>
+  </si>
+  <si>
+    <t>2012/2013</t>
+  </si>
+  <si>
+    <t>2013/2014</t>
+  </si>
+  <si>
+    <t>2014/2015</t>
+  </si>
+  <si>
+    <t>2015/2016</t>
+  </si>
+  <si>
+    <t>2016/2017</t>
+  </si>
+  <si>
+    <t>2017/2018</t>
+  </si>
+  <si>
+    <t>2018/2019</t>
+  </si>
+  <si>
+    <t>2019/2020</t>
+  </si>
+  <si>
+    <t>2020/2021</t>
+  </si>
+  <si>
+    <t>2021/2022</t>
+  </si>
+  <si>
+    <t>2022/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4088,6 +4157,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -4121,7 +4196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -4207,13 +4282,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4427,6 +4554,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4466,87 +4605,241 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Alpha 0,1</a:t>
+              <a:t>Calon</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Mahasiswa Baru</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Actual</c:v>
-          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$4:$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>2000/2001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001/2002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002/2003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003/2004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004/2005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005/2006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006/2007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007/2008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008/2009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009/2010</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010/2011</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011/2012</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012/2013</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013/2014</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014/2015</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015/2016</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016/2017</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017/2018</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018/2019</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019/2020</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020/2021</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021/2022</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022/2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$7</c:f>
+              <c:f>Sheet1!$C$4:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>362</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>353</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6C6A-4DEA-AD98-3431B62AEE67}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Forecast</c:v>
-          </c:tx>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$4:$D$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>362</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>361.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6C6A-4DEA-AD98-3431B62AEE67}"/>
+              <c16:uniqueId val="{00000000-9C84-4360-8EF1-0BB64EEE49B4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4558,41 +4851,56 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1163564720"/>
-        <c:axId val="1163562640"/>
-      </c:lineChart>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1480680815"/>
+        <c:axId val="1480681647"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="1163564720"/>
+        <c:axId val="1480680815"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Data Point</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:majorTickMark val="out"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1163562640"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1480681647"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4600,49 +4908,98 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1163562640"/>
+        <c:axId val="1480681647"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Value</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1163564720"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1480680815"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -4651,226 +5008,567 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Alpha 0,2</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Actual</c:v>
-          </c:tx>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$4:$C$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>362</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>353</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-758E-45E7-95C3-DD1D08BA2EB2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Forecast</c:v>
-          </c:tx>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$4:$D$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>362</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>361.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-758E-45E7-95C3-DD1D08BA2EB2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1112310464"/>
-        <c:axId val="1168954720"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1112310464"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Data Point</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1168954720"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1168954720"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Value</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1112310464"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>845005</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>16328</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>40822</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>394607</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>106135</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4880,36 +5578,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5181,28 +5849,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="58" t="s">
         <v>0</v>
       </c>
@@ -5219,329 +5889,438 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="52">
         <v>1</v>
       </c>
-      <c r="B4" s="52">
-        <v>2019</v>
-      </c>
-      <c r="C4" s="52">
-        <f>SUM($C16:$C22)</f>
-        <v>362</v>
-      </c>
-      <c r="D4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E4" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="89" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C4" s="90">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="52">
         <v>2</v>
       </c>
-      <c r="B5" s="52">
-        <v>2020</v>
-      </c>
-      <c r="C5" s="52">
-        <f>SUM($C23:$C29)</f>
-        <v>353</v>
-      </c>
-      <c r="D5">
-        <f>C4</f>
-        <v>362</v>
-      </c>
-      <c r="E5">
-        <f>C4</f>
-        <v>362</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="91" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C5" s="92">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="52">
         <v>3</v>
       </c>
-      <c r="B6" s="52">
-        <v>2021</v>
-      </c>
-      <c r="C6" s="52">
-        <f>SUM($C30:$C36)</f>
-        <v>300</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ref="D6" si="0">0.1*C5+0.9*D5</f>
-        <v>361.1</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ref="E6" si="1">0.2*C5+0.8*E5</f>
-        <v>360.20000000000005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="91" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C6" s="92">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="52">
         <v>4</v>
       </c>
-      <c r="B7" s="52">
-        <v>2022</v>
-      </c>
-      <c r="C7" s="52"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="91" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C7" s="92">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="52">
         <v>5</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="91" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C8" s="92">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="52">
         <v>6</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="91" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C9" s="92">
+        <v>118</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="52" t="s">
+        <v>1305</v>
+      </c>
+      <c r="H9" s="52" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="52">
         <v>7</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="91" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C10" s="92">
+        <v>103</v>
+      </c>
+      <c r="F10" s="93">
+        <v>2019</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>1304</v>
+      </c>
+      <c r="H10" s="52">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="52">
         <v>8</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="91" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C11" s="92">
+        <v>129</v>
+      </c>
+      <c r="F11" s="93"/>
+      <c r="G11" s="52" t="s">
+        <v>1307</v>
+      </c>
+      <c r="H11" s="52">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="52">
         <v>9</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="91" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C12" s="92">
+        <v>135</v>
+      </c>
+      <c r="F12" s="93"/>
+      <c r="G12" s="52" t="s">
+        <v>1308</v>
+      </c>
+      <c r="H12" s="52">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="52">
         <v>10</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="52" t="s">
-        <v>1305</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="89">
-        <v>2019</v>
-      </c>
-      <c r="B16" s="52" t="s">
+      <c r="B13" s="91" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C13" s="92">
+        <v>111</v>
+      </c>
+      <c r="F13" s="93"/>
+      <c r="G13" s="52" t="s">
+        <v>1309</v>
+      </c>
+      <c r="H13" s="52">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="52">
+        <v>11</v>
+      </c>
+      <c r="B14" s="91" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C14" s="92">
+        <v>131</v>
+      </c>
+      <c r="F14" s="93"/>
+      <c r="G14" s="52" t="s">
+        <v>1310</v>
+      </c>
+      <c r="H14" s="52">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="52">
+        <v>12</v>
+      </c>
+      <c r="B15" s="91" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C15" s="92">
+        <v>155</v>
+      </c>
+      <c r="F15" s="93"/>
+      <c r="G15" s="52" t="s">
+        <v>1311</v>
+      </c>
+      <c r="H15" s="52">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="52">
+        <v>13</v>
+      </c>
+      <c r="B16" s="91" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C16" s="92">
+        <v>109</v>
+      </c>
+      <c r="F16" s="93"/>
+      <c r="G16" s="52" t="s">
+        <v>1312</v>
+      </c>
+      <c r="H16" s="52">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="52">
+        <v>14</v>
+      </c>
+      <c r="B17" s="91" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C17" s="92">
+        <v>107</v>
+      </c>
+      <c r="F17" s="93">
+        <v>2020</v>
+      </c>
+      <c r="G17" s="52" t="s">
         <v>1304</v>
       </c>
-      <c r="C16" s="52">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="89"/>
-      <c r="B17" s="52" t="s">
+      <c r="H17" s="52">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="52">
+        <v>15</v>
+      </c>
+      <c r="B18" s="91" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C18" s="92">
+        <v>135</v>
+      </c>
+      <c r="F18" s="93"/>
+      <c r="G18" s="52" t="s">
         <v>1307</v>
       </c>
-      <c r="C17" s="52">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="89"/>
-      <c r="B18" s="52" t="s">
+      <c r="H18" s="52">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="52">
+        <v>16</v>
+      </c>
+      <c r="B19" s="91" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C19" s="92">
+        <v>150</v>
+      </c>
+      <c r="F19" s="93"/>
+      <c r="G19" s="52" t="s">
         <v>1308</v>
       </c>
-      <c r="C18" s="52">
+      <c r="H19" s="52">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="52">
+        <v>17</v>
+      </c>
+      <c r="B20" s="91" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C20" s="92">
+        <v>163</v>
+      </c>
+      <c r="F20" s="93"/>
+      <c r="G20" s="52" t="s">
+        <v>1309</v>
+      </c>
+      <c r="H20" s="52">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="52">
+        <v>18</v>
+      </c>
+      <c r="B21" s="91" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C21" s="92">
+        <v>173</v>
+      </c>
+      <c r="F21" s="93"/>
+      <c r="G21" s="52" t="s">
+        <v>1310</v>
+      </c>
+      <c r="H21" s="52">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="52">
+        <v>19</v>
+      </c>
+      <c r="B22" s="91" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C22" s="92">
+        <v>200</v>
+      </c>
+      <c r="F22" s="93"/>
+      <c r="G22" s="52" t="s">
+        <v>1311</v>
+      </c>
+      <c r="H22" s="52">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="52">
+        <v>20</v>
+      </c>
+      <c r="B23" s="91" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C23" s="92">
+        <v>282</v>
+      </c>
+      <c r="F23" s="93"/>
+      <c r="G23" s="52" t="s">
+        <v>1312</v>
+      </c>
+      <c r="H23" s="52">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="52">
+        <v>21</v>
+      </c>
+      <c r="B24" s="91" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C24" s="92">
+        <v>204</v>
+      </c>
+      <c r="F24" s="93">
+        <v>2021</v>
+      </c>
+      <c r="G24" s="52" t="s">
+        <v>1304</v>
+      </c>
+      <c r="H24" s="52">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="52">
+        <v>22</v>
+      </c>
+      <c r="B25" s="91" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C25" s="92">
+        <v>173</v>
+      </c>
+      <c r="F25" s="93"/>
+      <c r="G25" s="52" t="s">
+        <v>1307</v>
+      </c>
+      <c r="H25" s="52">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="52">
+        <v>23</v>
+      </c>
+      <c r="B26" s="91" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C26" s="92">
+        <v>226</v>
+      </c>
+      <c r="F26" s="93"/>
+      <c r="G26" s="52" t="s">
+        <v>1308</v>
+      </c>
+      <c r="H26" s="52">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="93"/>
+      <c r="G27" s="52" t="s">
+        <v>1309</v>
+      </c>
+      <c r="H27" s="52">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="89"/>
-      <c r="B19" s="52" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C19" s="52">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="89"/>
-      <c r="B20" s="52" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F28" s="93"/>
+      <c r="G28" s="52" t="s">
         <v>1310</v>
       </c>
-      <c r="C20" s="52">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="89"/>
-      <c r="B21" s="52" t="s">
+      <c r="H28" s="52">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F29" s="93"/>
+      <c r="G29" s="52" t="s">
         <v>1311</v>
       </c>
-      <c r="C21" s="52">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="89"/>
-      <c r="B22" s="52" t="s">
+      <c r="H29" s="52">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F30" s="93"/>
+      <c r="G30" s="52" t="s">
         <v>1312</v>
       </c>
-      <c r="C22" s="52">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="89">
-        <v>2020</v>
-      </c>
-      <c r="B23" s="52" t="s">
-        <v>1304</v>
-      </c>
-      <c r="C23" s="52">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="89"/>
-      <c r="B24" s="52" t="s">
-        <v>1307</v>
-      </c>
-      <c r="C24" s="52">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="89"/>
-      <c r="B25" s="52" t="s">
-        <v>1308</v>
-      </c>
-      <c r="C25" s="52">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="89"/>
-      <c r="B26" s="52" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C26" s="52">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="89"/>
-      <c r="B27" s="52" t="s">
-        <v>1310</v>
-      </c>
-      <c r="C27" s="52">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="89"/>
-      <c r="B28" s="52" t="s">
-        <v>1311</v>
-      </c>
-      <c r="C28" s="52">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="89"/>
-      <c r="B29" s="52" t="s">
-        <v>1312</v>
-      </c>
-      <c r="C29" s="52">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="89">
-        <v>2021</v>
-      </c>
-      <c r="B30" s="52" t="s">
-        <v>1304</v>
-      </c>
-      <c r="C30" s="52">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="89"/>
-      <c r="B31" s="52" t="s">
-        <v>1307</v>
-      </c>
-      <c r="C31" s="52">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="89"/>
-      <c r="B32" s="52" t="s">
-        <v>1308</v>
-      </c>
-      <c r="C32" s="52">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="89"/>
-      <c r="B33" s="52" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C33" s="52">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="89"/>
-      <c r="B34" s="52" t="s">
-        <v>1310</v>
-      </c>
-      <c r="C34" s="52">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="89"/>
-      <c r="B35" s="52" t="s">
-        <v>1311</v>
-      </c>
-      <c r="C35" s="52">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="89"/>
-      <c r="B36" s="52" t="s">
-        <v>1312</v>
-      </c>
-      <c r="C36" s="52">
+      <c r="H30" s="52">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="F10:F16"/>
+    <mergeCell ref="F17:F23"/>
+    <mergeCell ref="F24:F30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
